--- a/v013/progress.xlsx
+++ b/v013/progress.xlsx
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -155,6 +155,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,11 +833,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117635712"/>
-        <c:axId val="81740160"/>
+        <c:axId val="98824960"/>
+        <c:axId val="98826496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117635712"/>
+        <c:axId val="98824960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +847,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81740160"/>
+        <c:crossAx val="98826496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -852,7 +855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81740160"/>
+        <c:axId val="98826496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +885,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117635712"/>
+        <c:crossAx val="98824960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1145,11 +1148,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117591040"/>
-        <c:axId val="117617408"/>
+        <c:axId val="78320768"/>
+        <c:axId val="78322304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117591040"/>
+        <c:axId val="78320768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,7 +1161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117617408"/>
+        <c:crossAx val="78322304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1166,7 +1169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117617408"/>
+        <c:axId val="78322304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117591040"/>
+        <c:crossAx val="78320768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1383,11 +1386,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110257280"/>
-        <c:axId val="110258816"/>
+        <c:axId val="78339072"/>
+        <c:axId val="78361344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110257280"/>
+        <c:axId val="78339072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1400,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110258816"/>
+        <c:crossAx val="78361344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1405,7 +1408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110258816"/>
+        <c:axId val="78361344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +1438,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110257280"/>
+        <c:crossAx val="78339072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1874,7 +1877,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,7 +2077,7 @@
       <c r="C8" s="4">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="11">
         <v>5</v>
       </c>
       <c r="F8" s="5">
